--- a/pred_ohlcv/54_21/2020-01-16 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WTC ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-72595.38955859994</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-72799.78405859994</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-68346.70795859993</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-68569.02315859993</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-68569.02315859993</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-68558.31685859992</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-68799.08175859992</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-68833.08175859992</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-68831.78175859991</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-68831.78175859991</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-67115.45445859991</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-67363.8544585999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-67455.38335859991</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-67455.38335859991</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-67556.70325859991</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-66984.36645859991</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-66984.36645859991</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-67074.09385859991</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-71653.97135859991</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-68943.38865859991</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-68941.38865859991</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-69156.60995859992</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-72351.50715859992</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-72361.50715859992</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-70937.96175859994</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-71063.84595859994</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-66756.80255027703</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-55692.31344195415</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-55680.64404195415</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-55480.64404195415</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-55476.64404195415</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-49460.69434195416</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-49248.92434195416</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-49050.92434195416</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-50026.06434195416</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-51926.06434195416</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-52027.36434195416</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-52026.06434195416</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-57927.15694195416</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-58820.61264195415</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-63467.55574195416</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-60392.86524195416</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21160.433666821</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>141555.0159423261</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>23264.69801944308</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>104329.9446292272</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>75972.54761158749</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>60207.25371158749</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>47863.19841158749</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>33164.88291158748</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18918.19021158748</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>104479.4822115875</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>106287.7229115875</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>105196.3430115875</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>100179.5457115875</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>98622.29571158747</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>108740.0917115875</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>81996.85301158747</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>96998.05491158747</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>94122.01711158747</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>218890.4689901919</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>226794.3258241783</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>244396.9204059647</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>199342.5493554588</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>164824.2778280447</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>184946.1906280447</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>95976.78174121109</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>19217.76634121109</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>42047.11655951219</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>71604.64575951219</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>82992.01246464394</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>126461.0390941434</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>173947.5469300079</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>141521.7324683796</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WTC ohlcv.xlsx
@@ -1822,7 +1822,7 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-69156.60995859992</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-72351.50715859992</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-72361.50715859992</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-70937.96175859994</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-71063.84595859994</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-66756.80255027703</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-50026.06434195416</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-51926.06434195416</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-52027.36434195416</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-52026.06434195416</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-57927.15694195416</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-58820.61264195415</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-63467.55574195416</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-60392.86524195416</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-54710.08494195416</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21160.433666821</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>141555.0159423261</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>23264.69801944308</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>104329.9446292272</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>75972.54761158749</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>60207.25371158749</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>47863.19841158749</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>33164.88291158748</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18918.19021158748</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>104479.4822115875</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>106287.7229115875</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>105196.3430115875</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>100179.5457115875</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>98622.29571158747</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>108740.0917115875</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>81996.85301158747</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>96998.05491158747</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>94122.01711158747</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>218890.4689901919</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>226794.3258241783</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>244396.9204059647</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>199342.5493554588</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>164824.2778280447</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>184946.1906280447</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>95976.78174121109</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>19217.76634121109</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>70379.26954121108</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>42047.11655951219</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>71604.64575951219</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>82992.01246464394</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>126461.0390941434</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>173947.5469300079</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>141521.7324683796</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>112250.6808860779</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
